--- a/EPAM_Task6/Resources/new1.xlsx
+++ b/EPAM_Task6/Resources/new1.xlsx
@@ -108,7 +108,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="0">
-        <v>5</v>
+        <v>4.888888888888889</v>
       </c>
     </row>
   </sheetData>
